--- a/TNR_PREJDD/PREJDD.FA.NSV.xlsx
+++ b/TNR_PREJDD/PREJDD.FA.NSV.xlsx
@@ -89,7 +89,7 @@
     <t>NSV.TR.BTR.001.CRE.01</t>
   </si>
   <si>
-    <t>ATTENTE REPONSE MOE</t>
+    <t>$TBD</t>
   </si>
   <si>
     <t>TR.BTR.001.CRE.02</t>

--- a/TNR_PREJDD/PREJDD.FA.NSV.xlsx
+++ b/TNR_PREJDD/PREJDD.FA.NSV.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -89,7 +89,7 @@
     <t>NSV.TR.BTR.001.CRE.01</t>
   </si>
   <si>
-    <t>$TBD</t>
+    <t>H</t>
   </si>
   <si>
     <t>TR.BTR.001.CRE.02</t>
@@ -98,16 +98,25 @@
     <t>NSV.TR.BTR.001.CRE.02</t>
   </si>
   <si>
+    <t>J</t>
+  </si>
+  <si>
     <t>TR.BTR.001.CRE.03</t>
   </si>
   <si>
     <t>NSV.TR.BTR.001.CRE.03</t>
   </si>
   <si>
+    <t>JE</t>
+  </si>
+  <si>
     <t>TR.BTR.001.LEC.01</t>
   </si>
   <si>
     <t>NSV.TR.BTR.001.LEC.01</t>
+  </si>
+  <si>
+    <t>JA</t>
   </si>
   <si>
     <t>TR.BTR.001.MAJ.01</t>
@@ -144,7 +153,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -179,11 +188,6 @@
     </font>
     <font>
       <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -240,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -260,9 +264,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="4" fontId="3" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
@@ -1614,16 +1615,16 @@
       <c r="G2" s="10">
         <v>1.0</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1649,28 +1650,28 @@
       <c r="G3" s="10">
         <v>2.0</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>23</v>
+      <c r="H3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="10">
         <v>3.0</v>
@@ -1684,28 +1685,28 @@
       <c r="G4" s="10">
         <v>3.0</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>23</v>
+      <c r="H4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5" s="10">
         <v>4.0</v>
@@ -1719,28 +1720,28 @@
       <c r="G5" s="10">
         <v>4.0</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>23</v>
+      <c r="H5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D6" s="10">
         <v>5.0</v>
@@ -1754,28 +1755,28 @@
       <c r="G6" s="10">
         <v>5.0</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D7" s="10">
         <v>6.0</v>
@@ -1789,28 +1790,28 @@
       <c r="G7" s="10">
         <v>6.0</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>23</v>
+      <c r="H7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D8" s="10">
         <v>7.0</v>
@@ -1824,28 +1825,28 @@
       <c r="G8" s="10">
         <v>7.0</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>23</v>
+      <c r="H8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D9" s="10">
         <v>8.0</v>
@@ -1859,17 +1860,17 @@
       <c r="G9" s="10">
         <v>8.0</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>23</v>
+      <c r="H9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -3312,10 +3313,10 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -3343,25 +3344,25 @@
       <c r="Z1" s="7"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="12"/>
+      <c r="A2" s="11"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="12"/>
+      <c r="A3" s="11"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="12"/>
+      <c r="A4" s="11"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="12"/>
+      <c r="A5" s="11"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="12"/>
+      <c r="A7" s="11"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="12"/>
+      <c r="A8" s="11"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
